--- a/data_process/xlsx/jongno_C3_processed.xlsx
+++ b/data_process/xlsx/jongno_C3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -549,8 +559,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9834517</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5634558</v>
       </c>
     </row>
     <row r="3">
@@ -607,8 +623,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>126.9855013</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5619846</v>
       </c>
     </row>
     <row r="4">
@@ -665,8 +687,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>126.9848447</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5616257</v>
       </c>
     </row>
   </sheetData>
